--- a/3. hasil evaluasi M2/hasil evaluasi M2.xlsx
+++ b/3. hasil evaluasi M2/hasil evaluasi M2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\3. hasil M2 - tanpa random state\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\3. hasil evaluasi M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D09ED-44DC-4007-A501-CC77FAB3AC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9A7E1C-FEA6-4FD1-ADDD-6672AF45C574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 normalize" sheetId="2" r:id="rId1"/>
@@ -523,10 +523,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A5:T27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:T1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -543,59 +543,6 @@
     <col min="21" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="5">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="C1" s="5">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="D1" s="5">
-        <v>9.2899999999999996E-2</v>
-      </c>
-      <c r="E1" s="5">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="I1" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="J1" s="5">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5">
-        <v>0.80679999999999996</v>
-      </c>
-      <c r="M1" s="5">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="N1" s="5">
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="O1" s="5">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5">
-        <v>1</v>
-      </c>
-      <c r="R1" s="5">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="S1" s="5">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="T1" s="5">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>0</v>
@@ -685,6 +632,57 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="N7" s="5">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="S7" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="T7" s="5">
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1031,16 +1029,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1051,10 +1049,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A5:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1070,59 +1068,6 @@
     <col min="21" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="5">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="C1" s="5">
-        <v>225.1575</v>
-      </c>
-      <c r="D1" s="5">
-        <v>670.10320000000002</v>
-      </c>
-      <c r="E1" s="5">
-        <v>203.35999999999899</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5">
-        <v>5.2923</v>
-      </c>
-      <c r="I1" s="5">
-        <v>6.9950000000000001</v>
-      </c>
-      <c r="J1" s="5">
-        <v>0.19270000000000001</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5">
-        <v>0.80679999999999996</v>
-      </c>
-      <c r="M1" s="5">
-        <v>208.5737</v>
-      </c>
-      <c r="N1" s="5">
-        <v>583.35050000000001</v>
-      </c>
-      <c r="O1" s="5">
-        <v>204.82999999999899</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="9">
-        <v>1</v>
-      </c>
-      <c r="R1" s="9">
-        <v>4.8143000000000002</v>
-      </c>
-      <c r="S1" s="9">
-        <v>6.0444000000000004</v>
-      </c>
-      <c r="T1" s="9">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>0</v>
@@ -1212,6 +1157,57 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="C7" s="5">
+        <v>225.1575</v>
+      </c>
+      <c r="D7" s="5">
+        <v>670.10320000000002</v>
+      </c>
+      <c r="E7" s="5">
+        <v>203.35999999999899</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5.2923</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.19270000000000001</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="M7" s="5">
+        <v>208.5737</v>
+      </c>
+      <c r="N7" s="5">
+        <v>583.35050000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <v>204.82999999999899</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>4.8143000000000002</v>
+      </c>
+      <c r="S7" s="9">
+        <v>6.0444000000000004</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1638,16 +1634,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
